--- a/pred_ohlcv/54_21/2019-10-05 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-05 CMT ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-640622.0391999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-633226.4096999998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-633346.0500999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-651030.8151999998</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-646494.4257999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-641853.6444999998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-639993.1618999998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-639993.1618999998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-640587.9596999998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-617442.8952999997</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-626030.4373999997</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-625717.6541999998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-625769.8825999998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-683921.6858999998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-693417.4091999998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-715602.8706999997</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1465590.017992248</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1496267.635492248</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1423161.293978967</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1135977.074292248</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1132966.074292248</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1136977.074292248</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1136977.074292248</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1179640.074292248</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1179640.074292248</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1169640.074292248</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1159298.234292248</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1094193.362392248</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1230880.779692248</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1299653.723184868</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1333148.772114686</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-711221.4608146853</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-707968.1984146853</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-764160.5198146853</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-762474.2120146854</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-829536.6481146854</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-729831.6714146854</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-733703.7354716249</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-811397.5204716248</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-05 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-05 CMT ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-640622.0391999999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-633226.4096999998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-633346.0500999999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-651030.8151999998</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-646494.4257999999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-641853.6444999998</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-639993.1618999998</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-639993.1618999998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-640587.9596999998</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-617442.8952999997</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-626030.4373999997</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-625717.6541999998</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-625769.8825999998</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-683921.6858999998</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-693417.4091999998</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-715602.8706999997</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1465590.017992248</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1496267.635492248</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1423161.293978967</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1135977.074292248</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1132966.074292248</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1136977.074292248</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1136977.074292248</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1179640.074292248</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1179640.074292248</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1169640.074292248</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1159298.234292248</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1094193.362392248</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1230880.779692248</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1299653.723184868</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1333148.772114686</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-803517.5260146854</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-814347.8509146854</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-814347.8509146854</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-711221.4608146853</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-707968.1984146853</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-764160.5198146853</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-762474.2120146854</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-829546.6481146854</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-829536.6481146854</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-729831.6714146854</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-733703.7354716249</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-744991.5014716248</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-744991.5014716248</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-889623.2702716248</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-811397.5204716248</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
